--- a/scripts/libfab/libfabric.xlsx
+++ b/scripts/libfab/libfabric.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SHGPIWFSW001.ad.seagate.com\Data\744856\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595FF817-1B12-47C1-9AD9-19F5184FD6C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF346BCD-78AA-4A5A-B103-556DEA25A44C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>libfabric-debuginfo-1.11.2-1.el7.x86_64
 libfabric-1.11.2-1.el7.x86_64
@@ -68,24 +68,146 @@
     <t>fi_info -p verbs</t>
   </si>
   <si>
-    <t>fi_pingpong 127.0.0.1 -e msg -p tcp</t>
-  </si>
-  <si>
     <t>bytes   #sent   #ack     total       time     MB/sec    usec/xfer   Mxfers/sec</t>
-  </si>
-  <si>
-    <t>Test-005: Verify fi ping pong</t>
   </si>
   <si>
     <t xml:space="preserve">provider: verbs
 </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>match-sub</t>
+  </si>
+  <si>
+    <t>HW-specific</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>VM doesn't have provider 'verbs' as expected</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>server-command</t>
+  </si>
+  <si>
+    <t>fi_pingpong -e msg -p tcp</t>
+  </si>
+  <si>
+    <t>fi_info --version</t>
+  </si>
+  <si>
+    <t>Test-006: Verify libfabric version</t>
+  </si>
+  <si>
+    <t>fi_info: 1.11.2
+libfabric: 1.11.2
+libfabric api: 1.11</t>
+  </si>
+  <si>
+    <t>1m      1k      =1k</t>
+  </si>
+  <si>
+    <t>fi_pingpong -S 1048576 -e msg -p tcp -I 1000</t>
+  </si>
+  <si>
+    <t>fi_pingpong -e msg -p sockets</t>
+  </si>
+  <si>
+    <t>fi_pingpong -e msg -p verbs</t>
+  </si>
+  <si>
+    <t>Test-010: Verify fi ping pong for all sizes over sockets provider</t>
+  </si>
+  <si>
+    <t>Test-009: Verify fi ping pong over provider sockets</t>
+  </si>
+  <si>
+    <t>fi_pingpong -S all -e msg -p sockets</t>
+  </si>
+  <si>
+    <t>fi_pingpong -S all -e msg -p verbs</t>
+  </si>
+  <si>
+    <t>Test-005: Verify fi ping pong over tcp provider</t>
+  </si>
+  <si>
+    <t>Test-012: Verify fi ping pong over verbs provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-007: Verify fi ping pong  for all sizes over tcp provider </t>
+  </si>
+  <si>
+    <t>Test-013: Verify fi ping pong  for all sizes over verbs provider</t>
+  </si>
+  <si>
+    <t>Test-011: Verify fi ping pong test for 1m for data size 1mb with 20 iterations  over sockets provider</t>
+  </si>
+  <si>
+    <t>fi_pingpong -S 1048576 -e msg -p sockets -I 20</t>
+  </si>
+  <si>
+    <t>Test-014: Verify fi ping pong test for 1m for data size 1mb with 50 iterations</t>
+  </si>
+  <si>
+    <t>fi_pingpong -S 1048576 -e msg -p verbs -I 50</t>
+  </si>
+  <si>
+    <t>1m      20      =20</t>
+  </si>
+  <si>
+    <t>1m      50      =50</t>
+  </si>
+  <si>
+    <t>Test-008: Verify fi ping pong test for 1m for data size 1mb with 1000 iterations over tcp</t>
+  </si>
+  <si>
+    <t>fi_pingpong xx.xxx.xxx.xx -e msg -p tcp</t>
+  </si>
+  <si>
+    <t>fi_pingpong xx.xxx.xxx.xx -S 1048576 -e msg -p tcp -I 1000</t>
+  </si>
+  <si>
+    <t>fi_pingpong xx.xxx.xxx.xx -e msg -p sockets</t>
+  </si>
+  <si>
+    <t>fi_pingpong xx.xxx.xxx.xx -S all  -e msg -p sockets</t>
+  </si>
+  <si>
+    <t>fi_pingpong xx.xxx.xxx.xx -S 1048576 -e msg -p sockets -I 20</t>
+  </si>
+  <si>
+    <t>fi_pingpong xx.xxx.xxx.xx -e msg -p verbs</t>
+  </si>
+  <si>
+    <t>fi_pingpong xx.xxx.xxx.xx -S all  -e msg -p verbs</t>
+  </si>
+  <si>
+    <t>fi_pingpong xx.xxx.xxx.xx -S 1048576 -e msg -p verbs -I 50</t>
+  </si>
+  <si>
+    <t>fi_pingpong xx.xxx.xxx.xx -S all -e msg -p tcp  -I 1000</t>
+  </si>
+  <si>
+    <t>fi_pingpong -S all -e msg -p tcp  -I 1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +218,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,20 +285,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -450,84 +594,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB5F170-C8B4-43A3-B9D6-E1D96272CD09}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
